--- a/pred_ohlcv/54_21/2019-10-19 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 BHP ohlcv.xlsx
@@ -2836,7 +2836,7 @@
         <v>-95.51920000000001</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-95.51920000000001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-101.1192</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-101.1192</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-61.6431</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-61.6431</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-52.4431</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-55.5431</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-56.8431</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-29.6251</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-8.745100000000001</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-8.745100000000001</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-8.745100000000001</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-8.745100000000001</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>3.154899999999998</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>3.154899999999998</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3.154899999999998</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-197.6642999999999</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-190.6642999999999</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-190.6642999999999</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-190.6642999999999</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-190.6642999999999</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-185.8642999999999</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-185.8642999999999</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-185.8642999999999</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-166.8642999999999</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-174.3642999999999</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-103.5642999999999</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-147.3642999999999</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-147.3642999999999</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-147.3642999999999</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-159.2642999999999</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-144.9642999999999</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-142.9642999999999</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-142.9642999999999</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-64.56429999999993</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-64.56429999999993</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-58.66429999999993</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-41.86429999999993</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-41.86429999999993</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-57.56429999999993</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-47.86429999999993</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-58.46429999999993</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>74.53570000000009</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>83.23570000000009</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>83.23570000000009</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>83.23570000000009</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>64.33570000000009</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>61.73570000000009</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>91.43570000000008</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-19 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 BHP ohlcv.xlsx
@@ -2836,7 +2836,7 @@
         <v>-95.51920000000001</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-95.51920000000001</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-101.1192</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-101.1192</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-61.6431</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-61.6431</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-52.4431</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-55.5431</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-56.8431</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-29.6251</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-8.745100000000001</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-8.745100000000001</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-8.745100000000001</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-8.745100000000001</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>3.154899999999998</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>3.154899999999998</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>3.154899999999998</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-197.6642999999999</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-190.6642999999999</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-190.6642999999999</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-190.6642999999999</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-186.1642999999999</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-182.3642999999999</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-182.3642999999999</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-185.8642999999999</v>
       </c>
       <c r="H537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-166.8642999999999</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-174.3642999999999</v>
       </c>
       <c r="H539">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-103.5642999999999</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-147.3642999999999</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-147.3642999999999</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-147.3642999999999</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-159.2642999999999</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-159.2642999999999</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-144.9642999999999</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-142.9642999999999</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-142.9642999999999</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-128.6642999999999</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-64.56429999999993</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-64.56429999999993</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-58.66429999999993</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-41.86429999999993</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-57.56429999999993</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-57.56429999999993</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-47.86429999999993</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-58.46429999999993</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-39.56429999999991</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-14.06429999999991</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-14.06429999999991</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-14.06429999999991</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-14.06429999999991</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-21.76429999999991</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-21.76429999999991</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-38.36429999999991</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-47.86429999999991</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-32.86429999999991</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-44.76429999999991</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-44.76429999999991</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-44.76429999999991</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-44.76429999999991</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-51.26429999999991</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-51.26429999999991</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>70.13570000000009</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>70.13570000000009</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>70.13570000000009</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>81.53570000000009</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>74.53570000000009</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>74.53570000000009</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>74.53570000000009</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>83.23570000000009</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>83.23570000000009</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>83.23570000000009</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>83.23570000000009</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>64.33570000000009</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>64.33570000000009</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>64.33570000000009</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>64.33570000000009</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>64.33570000000009</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>64.33570000000009</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>61.73570000000009</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>91.43570000000008</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
